--- a/code/bestnum_results/150_ch_results.xlsx
+++ b/code/bestnum_results/150_ch_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bestnum_algo</t>
         </is>
       </c>
@@ -470,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,7 +488,10 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -494,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -507,7 +515,10 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>150</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -518,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -531,7 +542,10 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>150</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -542,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -555,7 +569,10 @@
       <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>150</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -566,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -579,7 +596,10 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>150</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -590,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -603,7 +623,10 @@
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>150</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -614,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -625,9 +648,12 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>150</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -638,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -651,7 +677,10 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>150</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -662,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -675,7 +704,10 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -686,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -699,7 +731,10 @@
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>150</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -710,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -723,7 +758,10 @@
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>150</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -734,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -747,7 +785,10 @@
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>150</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -758,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -771,7 +812,10 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>150</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -782,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -795,7 +839,10 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>150</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -806,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -817,9 +864,12 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>150</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -830,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -843,7 +893,10 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>150</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -854,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -865,9 +918,12 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>150</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -878,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -891,7 +947,10 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>150</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -902,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -915,7 +974,10 @@
       <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>150</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -926,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -939,7 +1001,10 @@
       <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>150</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -950,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -963,7 +1028,10 @@
       <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>150</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -974,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -987,7 +1055,10 @@
       <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>150</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -998,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1009,9 +1080,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>150</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1022,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1035,7 +1109,10 @@
       <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>150</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1046,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1059,7 +1136,10 @@
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>150</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1070,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1083,7 +1163,10 @@
       <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>150</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1094,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1107,7 +1190,10 @@
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>150</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1118,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1131,7 +1217,10 @@
       <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>150</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1142,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1155,7 +1244,10 @@
       <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>150</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1166,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1179,7 +1271,10 @@
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>150</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1190,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1201,9 +1296,12 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>150</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1214,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1227,7 +1325,10 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>150</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1238,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1249,9 +1350,12 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>150</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1262,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,7 +1379,10 @@
       <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>150</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1286,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1297,9 +1404,12 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>150</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1310,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1321,9 +1431,12 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>150</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1334,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1347,7 +1460,10 @@
       <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>150</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1358,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1371,7 +1487,10 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>150</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1382,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1395,7 +1514,10 @@
       <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>150</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1406,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1419,7 +1541,10 @@
       <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>150</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1430,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1443,7 +1568,10 @@
       <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="n">
+        <v>150</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1454,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1467,7 +1595,10 @@
       <c r="E43" t="n">
         <v>3</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="n">
+        <v>150</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1478,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1491,7 +1622,10 @@
       <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>150</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1502,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1515,7 +1649,10 @@
       <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="n">
+        <v>150</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1526,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1539,7 +1676,10 @@
       <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="n">
+        <v>150</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1550,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1563,7 +1703,10 @@
       <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="n">
+        <v>150</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1574,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1587,7 +1730,10 @@
       <c r="E48" t="n">
         <v>2</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="n">
+        <v>150</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1598,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1611,7 +1757,10 @@
       <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="n">
+        <v>150</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1622,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1635,7 +1784,10 @@
       <c r="E50" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="n">
+        <v>150</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1646,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1659,7 +1811,10 @@
       <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="n">
+        <v>150</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1670,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1683,7 +1838,10 @@
       <c r="E52" t="n">
         <v>3</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="n">
+        <v>150</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1694,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1707,7 +1865,10 @@
       <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="n">
+        <v>150</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1718,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1731,7 +1892,10 @@
       <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="n">
+        <v>150</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1742,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1755,7 +1919,10 @@
       <c r="E55" t="n">
         <v>3</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="n">
+        <v>150</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1766,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1777,9 +1944,12 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>150</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1790,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1803,7 +1973,10 @@
       <c r="E57" t="n">
         <v>3</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="n">
+        <v>150</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1814,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1827,7 +2000,10 @@
       <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>150</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1838,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1851,7 +2027,10 @@
       <c r="E59" t="n">
         <v>3</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>150</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1862,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1875,7 +2054,10 @@
       <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="n">
+        <v>150</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1886,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1899,7 +2081,10 @@
       <c r="E61" t="n">
         <v>4</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="n">
+        <v>150</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1910,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1923,7 +2108,10 @@
       <c r="E62" t="n">
         <v>3</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>150</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1934,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1947,7 +2135,10 @@
       <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="n">
+        <v>150</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1958,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1969,9 +2160,12 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>150</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -1982,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1995,7 +2189,10 @@
       <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="n">
+        <v>150</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2006,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2019,7 +2216,10 @@
       <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="n">
+        <v>150</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2030,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2043,7 +2243,10 @@
       <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="n">
+        <v>150</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2054,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2065,9 +2268,12 @@
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>150</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2078,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2091,7 +2297,10 @@
       <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="n">
+        <v>150</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2102,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2115,7 +2324,10 @@
       <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="n">
+        <v>150</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2126,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2139,7 +2351,10 @@
       <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="n">
+        <v>150</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2150,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2161,9 +2376,12 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
-      </c>
-      <c r="F72" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>150</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2174,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2187,7 +2405,10 @@
       <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="n">
+        <v>150</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2198,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2211,7 +2432,10 @@
       <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>150</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2222,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2235,7 +2459,10 @@
       <c r="E75" t="n">
         <v>3</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="n">
+        <v>150</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2246,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2257,9 +2484,12 @@
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>150</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2270,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2281,9 +2511,12 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>150</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2294,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2307,7 +2540,10 @@
       <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="n">
+        <v>150</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2318,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2331,7 +2567,10 @@
       <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="n">
+        <v>150</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2342,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2353,9 +2592,12 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>150</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2366,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2379,7 +2621,10 @@
       <c r="E81" t="n">
         <v>3</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="n">
+        <v>150</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2390,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="B82" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2403,7 +2648,10 @@
       <c r="E82" t="n">
         <v>4</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="n">
+        <v>150</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2414,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2427,7 +2675,10 @@
       <c r="E83" t="n">
         <v>4</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="n">
+        <v>150</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2438,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2451,7 +2702,10 @@
       <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="n">
+        <v>150</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2462,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2475,7 +2729,10 @@
       <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="n">
+        <v>150</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2486,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2499,7 +2756,10 @@
       <c r="E86" t="n">
         <v>4</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="n">
+        <v>150</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2510,7 +2770,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2521,9 +2781,12 @@
         <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
-      </c>
-      <c r="F87" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>150</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2534,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2547,7 +2810,10 @@
       <c r="E88" t="n">
         <v>2</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="n">
+        <v>150</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2558,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2569,9 +2835,12 @@
         <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>150</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2582,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2595,7 +2864,10 @@
       <c r="E90" t="n">
         <v>4</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="n">
+        <v>150</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2606,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2619,7 +2891,10 @@
       <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="n">
+        <v>150</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2630,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2641,9 +2916,12 @@
         <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>150</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2654,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2667,7 +2945,10 @@
       <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="n">
+        <v>150</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2678,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2691,7 +2972,10 @@
       <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="n">
+        <v>150</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2702,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2715,7 +2999,10 @@
       <c r="E95" t="n">
         <v>4</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="n">
+        <v>150</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2726,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2737,9 +3024,12 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>150</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2750,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2763,7 +3053,10 @@
       <c r="E97" t="n">
         <v>4</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>150</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2774,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2787,7 +3080,10 @@
       <c r="E98" t="n">
         <v>4</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="n">
+        <v>150</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2798,7 +3094,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2811,7 +3107,10 @@
       <c r="E99" t="n">
         <v>4</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="n">
+        <v>150</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2822,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2833,9 +3132,12 @@
         <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>150</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2846,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2859,7 +3161,10 @@
       <c r="E101" t="n">
         <v>5</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="n">
+        <v>150</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2870,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2883,7 +3188,10 @@
       <c r="E102" t="n">
         <v>4</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="n">
+        <v>150</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2894,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2907,7 +3215,10 @@
       <c r="E103" t="n">
         <v>4</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="n">
+        <v>150</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2918,7 +3229,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2931,7 +3242,10 @@
       <c r="E104" t="n">
         <v>2</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="n">
+        <v>150</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2942,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2955,7 +3269,10 @@
       <c r="E105" t="n">
         <v>3</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="n">
+        <v>150</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2966,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2977,9 +3294,12 @@
         <v>4</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
-      </c>
-      <c r="F106" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>150</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -2990,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3003,7 +3323,10 @@
       <c r="E107" t="n">
         <v>3</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="n">
+        <v>150</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3014,7 +3337,7 @@
         <v>14</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3025,9 +3348,12 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
-      </c>
-      <c r="F108" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>150</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3038,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3049,9 +3375,12 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>150</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3062,7 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3075,7 +3404,10 @@
       <c r="E110" t="n">
         <v>4</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="n">
+        <v>150</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3086,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3099,7 +3431,10 @@
       <c r="E111" t="n">
         <v>4</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="n">
+        <v>150</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3110,7 +3445,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3121,9 +3456,12 @@
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>150</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3134,7 +3472,7 @@
         <v>14</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3147,7 +3485,10 @@
       <c r="E113" t="n">
         <v>3</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="n">
+        <v>150</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3158,7 +3499,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3171,7 +3512,10 @@
       <c r="E114" t="n">
         <v>3</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="n">
+        <v>150</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3182,7 +3526,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3195,7 +3539,10 @@
       <c r="E115" t="n">
         <v>3</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="n">
+        <v>150</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3206,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3217,9 +3564,12 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>150</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3230,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3241,9 +3591,12 @@
         <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>150</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3254,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3265,9 +3618,12 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>150</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3278,7 +3634,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3291,7 +3647,10 @@
       <c r="E119" t="n">
         <v>4</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="n">
+        <v>150</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3302,7 +3661,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3313,9 +3672,12 @@
         <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
-      </c>
-      <c r="F120" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>150</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3326,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3339,7 +3701,10 @@
       <c r="E121" t="n">
         <v>3</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="n">
+        <v>150</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3350,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="B122" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3363,7 +3728,10 @@
       <c r="E122" t="n">
         <v>5</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="n">
+        <v>150</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3374,7 +3742,7 @@
         <v>17</v>
       </c>
       <c r="B123" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3387,7 +3755,10 @@
       <c r="E123" t="n">
         <v>5</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="n">
+        <v>150</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3398,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="B124" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3411,7 +3782,10 @@
       <c r="E124" t="n">
         <v>5</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="n">
+        <v>150</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3422,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="B125" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3435,7 +3809,10 @@
       <c r="E125" t="n">
         <v>2</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="n">
+        <v>150</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3446,7 +3823,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3459,7 +3836,10 @@
       <c r="E126" t="n">
         <v>5</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="n">
+        <v>150</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3470,7 +3850,7 @@
         <v>17</v>
       </c>
       <c r="B127" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3483,7 +3863,10 @@
       <c r="E127" t="n">
         <v>5</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="n">
+        <v>150</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3494,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="B128" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3507,7 +3890,10 @@
       <c r="E128" t="n">
         <v>2</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="n">
+        <v>150</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3518,7 +3904,7 @@
         <v>17</v>
       </c>
       <c r="B129" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3531,7 +3917,10 @@
       <c r="E129" t="n">
         <v>4</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="n">
+        <v>150</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3542,7 +3931,7 @@
         <v>18</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3553,9 +3942,12 @@
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>150</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3566,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3577,9 +3969,12 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
-      </c>
-      <c r="F131" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>150</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3590,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3601,9 +3996,12 @@
         <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>150</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3614,7 +4012,7 @@
         <v>18</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3625,9 +4023,12 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>150</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3638,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3651,7 +4052,10 @@
       <c r="E134" t="n">
         <v>5</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="n">
+        <v>150</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3662,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3675,7 +4079,10 @@
       <c r="E135" t="n">
         <v>5</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="n">
+        <v>150</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3686,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3697,9 +4104,12 @@
         <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
-      </c>
-      <c r="F136" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>150</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3710,7 +4120,7 @@
         <v>18</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3721,9 +4131,12 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
-      </c>
-      <c r="F137" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>150</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3734,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3745,9 +4158,12 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
-      </c>
-      <c r="F138" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>150</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3758,7 +4174,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3769,9 +4185,12 @@
         <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>150</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3782,7 +4201,7 @@
         <v>19</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3795,7 +4214,10 @@
       <c r="E140" t="n">
         <v>5</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="n">
+        <v>150</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3806,7 +4228,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3819,7 +4241,10 @@
       <c r="E141" t="n">
         <v>2</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="n">
+        <v>150</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3830,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3841,9 +4266,12 @@
         <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>150</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3854,7 +4282,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3867,7 +4295,10 @@
       <c r="E143" t="n">
         <v>5</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="n">
+        <v>150</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3878,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3891,7 +4322,10 @@
       <c r="E144" t="n">
         <v>2</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="n">
+        <v>150</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3902,7 +4336,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3915,7 +4349,10 @@
       <c r="E145" t="n">
         <v>4</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="n">
+        <v>150</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3926,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3939,7 +4376,10 @@
       <c r="E146" t="n">
         <v>4</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="n">
+        <v>150</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3950,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3961,9 +4401,12 @@
         <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>4</v>
-      </c>
-      <c r="F147" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>150</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3974,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3985,9 +4428,12 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
-      </c>
-      <c r="F148" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>150</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -3998,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4009,9 +4455,12 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
-      </c>
-      <c r="F149" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>150</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4022,7 +4471,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4033,9 +4482,12 @@
         <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
-      </c>
-      <c r="F150" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>150</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4046,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4059,7 +4511,10 @@
       <c r="E151" t="n">
         <v>4</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" t="n">
+        <v>150</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4070,7 +4525,7 @@
         <v>20</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4081,9 +4536,12 @@
         <v>5</v>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
-      </c>
-      <c r="F152" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>150</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4094,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4107,7 +4565,10 @@
       <c r="E153" t="n">
         <v>3</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="n">
+        <v>150</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4118,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4131,7 +4592,10 @@
       <c r="E154" t="n">
         <v>4</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="n">
+        <v>150</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4142,7 +4606,7 @@
         <v>21</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4155,7 +4619,10 @@
       <c r="E155" t="n">
         <v>3</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" t="n">
+        <v>150</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4166,7 +4633,7 @@
         <v>21</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4177,9 +4644,12 @@
         <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
-      </c>
-      <c r="F156" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>150</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4190,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4203,7 +4673,10 @@
       <c r="E157" t="n">
         <v>3</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="n">
+        <v>150</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4214,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4227,7 +4700,10 @@
       <c r="E158" t="n">
         <v>3</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="n">
+        <v>150</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4238,7 +4714,7 @@
         <v>21</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4251,7 +4727,10 @@
       <c r="E159" t="n">
         <v>4</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="n">
+        <v>150</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4262,7 +4741,7 @@
         <v>21</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4275,7 +4754,10 @@
       <c r="E160" t="n">
         <v>2</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="n">
+        <v>150</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4286,7 +4768,7 @@
         <v>21</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4297,9 +4779,12 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
-      </c>
-      <c r="F161" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>150</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4310,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4323,7 +4808,10 @@
       <c r="E162" t="n">
         <v>5</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="n">
+        <v>150</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4334,7 +4822,7 @@
         <v>23</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4345,9 +4833,12 @@
         <v>6</v>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
-      </c>
-      <c r="F163" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>150</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4358,7 +4849,7 @@
         <v>23</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4369,9 +4860,12 @@
         <v>6</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
-      </c>
-      <c r="F164" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>150</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4382,7 +4876,7 @@
         <v>23</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4395,7 +4889,10 @@
       <c r="E165" t="n">
         <v>2</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F165" t="n">
+        <v>150</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4406,7 +4903,7 @@
         <v>23</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4419,7 +4916,10 @@
       <c r="E166" t="n">
         <v>6</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" t="n">
+        <v>150</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4430,7 +4930,7 @@
         <v>23</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4443,7 +4943,10 @@
       <c r="E167" t="n">
         <v>6</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F167" t="n">
+        <v>150</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4454,7 +4957,7 @@
         <v>23</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4465,9 +4968,12 @@
         <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
-      </c>
-      <c r="F168" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>150</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4478,7 +4984,7 @@
         <v>23</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4491,7 +4997,10 @@
       <c r="E169" t="n">
         <v>3</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" t="n">
+        <v>150</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4502,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4515,7 +5024,10 @@
       <c r="E170" t="n">
         <v>4</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" t="n">
+        <v>150</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4526,7 +5038,7 @@
         <v>24</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4539,7 +5051,10 @@
       <c r="E171" t="n">
         <v>6</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4550,7 +5065,7 @@
         <v>24</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4561,9 +5076,12 @@
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
-      </c>
-      <c r="F172" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>150</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4574,7 +5092,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4587,7 +5105,10 @@
       <c r="E173" t="n">
         <v>2</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F173" t="n">
+        <v>150</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4598,7 +5119,7 @@
         <v>24</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4611,7 +5132,10 @@
       <c r="E174" t="n">
         <v>3</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" t="n">
+        <v>150</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4622,7 +5146,7 @@
         <v>24</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4633,9 +5157,12 @@
         <v>6</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
-      </c>
-      <c r="F175" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>150</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4646,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4657,9 +5184,12 @@
         <v>6</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
-      </c>
-      <c r="F176" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>150</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4670,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4683,7 +5213,10 @@
       <c r="E177" t="n">
         <v>4</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F177" t="n">
+        <v>150</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4694,7 +5227,7 @@
         <v>25</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4705,9 +5238,12 @@
         <v>6</v>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
-      </c>
-      <c r="F178" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>150</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4718,7 +5254,7 @@
         <v>25</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4729,9 +5265,12 @@
         <v>6</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
-      </c>
-      <c r="F179" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>150</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4742,7 +5281,7 @@
         <v>25</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4755,7 +5294,10 @@
       <c r="E180" t="n">
         <v>3</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" t="n">
+        <v>150</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4766,7 +5308,7 @@
         <v>25</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4779,7 +5321,10 @@
       <c r="E181" t="n">
         <v>2</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" t="n">
+        <v>150</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4790,7 +5335,7 @@
         <v>25</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4803,7 +5348,10 @@
       <c r="E182" t="n">
         <v>4</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" t="n">
+        <v>150</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4814,7 +5362,7 @@
         <v>25</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4825,9 +5373,12 @@
         <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
-      </c>
-      <c r="F183" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>150</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4838,7 +5389,7 @@
         <v>25</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4849,9 +5400,12 @@
         <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
-      </c>
-      <c r="F184" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>150</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4862,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4875,7 +5429,10 @@
       <c r="E185" t="n">
         <v>3</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" t="n">
+        <v>150</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4886,7 +5443,7 @@
         <v>26</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4897,9 +5454,12 @@
         <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
-      </c>
-      <c r="F186" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>150</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4910,7 +5470,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4921,9 +5481,12 @@
         <v>6</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
-      </c>
-      <c r="F187" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>150</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4934,7 +5497,7 @@
         <v>26</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4945,9 +5508,12 @@
         <v>6</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
-      </c>
-      <c r="F188" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>150</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4958,7 +5524,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4971,7 +5537,10 @@
       <c r="E189" t="n">
         <v>2</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" t="n">
+        <v>150</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -4982,7 +5551,7 @@
         <v>26</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4993,9 +5562,12 @@
         <v>6</v>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
-      </c>
-      <c r="F190" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>150</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5006,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5017,9 +5589,12 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>150</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5030,7 +5605,7 @@
         <v>26</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5043,7 +5618,10 @@
       <c r="E192" t="n">
         <v>2</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F192" t="n">
+        <v>150</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5054,7 +5632,7 @@
         <v>26</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5065,9 +5643,12 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
-      </c>
-      <c r="F193" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>150</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5078,7 +5659,7 @@
         <v>27</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5089,9 +5670,12 @@
         <v>6</v>
       </c>
       <c r="E194" t="n">
-        <v>4</v>
-      </c>
-      <c r="F194" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>150</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5102,7 +5686,7 @@
         <v>27</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5113,9 +5697,12 @@
         <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
-      </c>
-      <c r="F195" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>150</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5126,7 +5713,7 @@
         <v>27</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5137,9 +5724,12 @@
         <v>6</v>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
-      </c>
-      <c r="F196" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>150</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5150,7 +5740,7 @@
         <v>27</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5163,7 +5753,10 @@
       <c r="E197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" t="n">
+        <v>150</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5174,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5185,9 +5778,12 @@
         <v>6</v>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
-      </c>
-      <c r="F198" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>150</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5198,7 +5794,7 @@
         <v>27</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5211,7 +5807,10 @@
       <c r="E199" t="n">
         <v>6</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" t="n">
+        <v>150</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5222,7 +5821,7 @@
         <v>27</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5233,9 +5832,12 @@
         <v>6</v>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
-      </c>
-      <c r="F200" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>150</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5246,7 +5848,7 @@
         <v>27</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5257,9 +5859,12 @@
         <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
-      </c>
-      <c r="F201" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>150</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5270,7 +5875,7 @@
         <v>28</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5283,7 +5888,10 @@
       <c r="E202" t="n">
         <v>4</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F202" t="n">
+        <v>150</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5294,7 +5902,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5307,7 +5915,10 @@
       <c r="E203" t="n">
         <v>4</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F203" t="n">
+        <v>150</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5318,7 +5929,7 @@
         <v>28</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5329,9 +5940,12 @@
         <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
-      </c>
-      <c r="F204" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>150</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5342,7 +5956,7 @@
         <v>28</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5353,9 +5967,12 @@
         <v>6</v>
       </c>
       <c r="E205" t="n">
-        <v>5</v>
-      </c>
-      <c r="F205" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>150</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5366,7 +5983,7 @@
         <v>28</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5377,9 +5994,12 @@
         <v>6</v>
       </c>
       <c r="E206" t="n">
-        <v>4</v>
-      </c>
-      <c r="F206" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>150</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5390,7 +6010,7 @@
         <v>28</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5401,9 +6021,12 @@
         <v>6</v>
       </c>
       <c r="E207" t="n">
-        <v>6</v>
-      </c>
-      <c r="F207" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>150</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5414,7 +6037,7 @@
         <v>28</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5425,9 +6048,12 @@
         <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
-      </c>
-      <c r="F208" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>150</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5438,7 +6064,7 @@
         <v>28</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5449,9 +6075,12 @@
         <v>6</v>
       </c>
       <c r="E209" t="n">
-        <v>3</v>
-      </c>
-      <c r="F209" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F209" t="n">
+        <v>150</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5462,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5475,7 +6104,10 @@
       <c r="E210" t="n">
         <v>5</v>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" t="n">
+        <v>150</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5486,7 +6118,7 @@
         <v>29</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5497,9 +6129,12 @@
         <v>6</v>
       </c>
       <c r="E211" t="n">
-        <v>5</v>
-      </c>
-      <c r="F211" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150</v>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5510,7 +6145,7 @@
         <v>29</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5521,9 +6156,12 @@
         <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>3</v>
-      </c>
-      <c r="F212" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F212" t="n">
+        <v>150</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5534,7 +6172,7 @@
         <v>29</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5545,9 +6183,12 @@
         <v>6</v>
       </c>
       <c r="E213" t="n">
-        <v>6</v>
-      </c>
-      <c r="F213" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>150</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5558,7 +6199,7 @@
         <v>29</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5571,7 +6212,10 @@
       <c r="E214" t="n">
         <v>4</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F214" t="n">
+        <v>150</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5582,7 +6226,7 @@
         <v>29</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5593,9 +6237,12 @@
         <v>6</v>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
-      </c>
-      <c r="F215" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>150</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5606,7 +6253,7 @@
         <v>29</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5617,9 +6264,12 @@
         <v>6</v>
       </c>
       <c r="E216" t="n">
-        <v>4</v>
-      </c>
-      <c r="F216" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>150</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5630,7 +6280,7 @@
         <v>29</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5641,9 +6291,12 @@
         <v>6</v>
       </c>
       <c r="E217" t="n">
-        <v>4</v>
-      </c>
-      <c r="F217" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>150</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5654,7 +6307,7 @@
         <v>30</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5667,7 +6320,10 @@
       <c r="E218" t="n">
         <v>4</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" t="n">
+        <v>150</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5678,7 +6334,7 @@
         <v>30</v>
       </c>
       <c r="B219" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5689,9 +6345,12 @@
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>3</v>
-      </c>
-      <c r="F219" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>150</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5702,7 +6361,7 @@
         <v>30</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5713,9 +6372,12 @@
         <v>6</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
-      </c>
-      <c r="F220" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>150</v>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5726,7 +6388,7 @@
         <v>30</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5737,9 +6399,12 @@
         <v>6</v>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
-      </c>
-      <c r="F221" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>150</v>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5750,7 +6415,7 @@
         <v>30</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5763,7 +6428,10 @@
       <c r="E222" t="n">
         <v>3</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" t="n">
+        <v>150</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5774,7 +6442,7 @@
         <v>30</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5785,9 +6453,12 @@
         <v>6</v>
       </c>
       <c r="E223" t="n">
-        <v>3</v>
-      </c>
-      <c r="F223" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>150</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5798,7 +6469,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5811,7 +6482,10 @@
       <c r="E224" t="n">
         <v>2</v>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" t="n">
+        <v>150</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
@@ -5822,7 +6496,7 @@
         <v>30</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5833,9 +6507,12 @@
         <v>6</v>
       </c>
       <c r="E225" t="n">
-        <v>3</v>
-      </c>
-      <c r="F225" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>150</v>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>calinski_harabasz</t>
         </is>
